--- a/修真聊天群/仙侣（持续更新）.xlsx
+++ b/修真聊天群/仙侣（持续更新）.xlsx
@@ -12,16 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$83</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
-  <si>
-    <t xml:space="preserve">特别感谢：梦影ぷ逍遥□ </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="153">
+  <si>
+    <t xml:space="preserve">特别感谢：梦影ぷ逍遥□ 、房小锤 </t>
   </si>
   <si>
     <t>序号</t>
@@ -51,6 +51,12 @@
     <t>黎秋琼</t>
   </si>
   <si>
+    <t>【蕙质兰心】与其双修后，有小几率百年内双修效率提高</t>
+  </si>
+  <si>
+    <t>【玄灵圣体】与其双修后可提升修为</t>
+  </si>
+  <si>
     <t>苍梧派</t>
   </si>
   <si>
@@ -60,9 +66,6 @@
     <t>【喜怒无常】与其双修效率颇高，但有几率伤人</t>
   </si>
   <si>
-    <t>【玄灵圣体】与其双修后可提升修为</t>
-  </si>
-  <si>
     <t>万毒门</t>
   </si>
   <si>
@@ -201,9 +204,6 @@
     <t>上官雨笙</t>
   </si>
   <si>
-    <t>【蕙质兰心】与其双修后，有小几率百年内双修效率提高</t>
-  </si>
-  <si>
     <t>烟雨阁</t>
   </si>
   <si>
@@ -225,6 +225,9 @@
     <t>顾倾城</t>
   </si>
   <si>
+    <t>【皇道圣体】与其双修后可提升威望</t>
+  </si>
+  <si>
     <t>花铃兰</t>
   </si>
   <si>
@@ -295,9 +298,6 @@
   </si>
   <si>
     <t>紫苏</t>
-  </si>
-  <si>
-    <t>【皇道圣体】与其双修后可提升威望</t>
   </si>
   <si>
     <t>长生教</t>
@@ -485,8 +485,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -637,8 +637,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,9 +652,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,6 +686,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -704,72 +860,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -777,96 +867,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,145 +1026,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,8 +1554,8 @@
   <sheetPr/>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1625,8 +1625,12 @@
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7">
@@ -1637,16 +1641,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1658,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1675,16 +1679,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1696,16 +1700,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1717,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1738,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1755,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1772,16 +1776,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1793,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1810,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1827,16 +1831,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1848,16 +1852,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1869,16 +1873,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1890,10 +1894,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1907,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -1924,10 +1928,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1941,16 +1945,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1962,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1979,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1996,10 +2000,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2013,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2034,16 +2038,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2055,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2072,10 +2076,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2089,16 +2093,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2116,10 +2120,10 @@
         <v>62</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2170,8 +2174,12 @@
       <c r="D33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7">
@@ -2185,7 +2193,7 @@
         <v>66</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2199,16 +2207,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2220,16 +2228,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2241,10 +2249,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2258,10 +2266,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2275,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -2292,10 +2300,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2309,13 +2317,17 @@
         <v>3</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="7">
@@ -2326,10 +2338,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -2343,10 +2355,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -2360,13 +2372,17 @@
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="7">
@@ -2377,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -2394,10 +2410,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -2411,16 +2427,16 @@
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2472,7 +2488,7 @@
         <v>98</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>99</v>
@@ -2523,7 +2539,7 @@
         <v>103</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>104</v>
@@ -2596,7 +2612,7 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>111</v>
@@ -2662,7 +2678,7 @@
         <v>119</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>99</v>
@@ -2794,10 +2810,10 @@
         <v>134</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2872,8 +2888,12 @@
       <c r="D75" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="7">
@@ -2982,10 +3002,7 @@
       <c r="F83" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E83">
-    <sortState ref="A2:E83">
-      <sortCondition ref="B2"/>
-    </sortState>
+  <autoFilter ref="A1:F83">
     <extLst/>
   </autoFilter>
   <sortState ref="C2:E82">

--- a/修真聊天群/仙侣（持续更新）.xlsx
+++ b/修真聊天群/仙侣（持续更新）.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="153">
-  <si>
-    <t xml:space="preserve">特别感谢：梦影ぷ逍遥□ 、房小锤 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
+  <si>
+    <t xml:space="preserve">特别感谢：梦影ぷ逍遥□ 、房小锤 、3区南宫铭润 、霍鸿真 </t>
   </si>
   <si>
     <t>序号</t>
@@ -102,9 +102,15 @@
     <t>姬涟浣</t>
   </si>
   <si>
+    <t>【贤惠端庄】偶尔会赠送丹药给双修伴侣</t>
+  </si>
+  <si>
     <t>楚汐瑶</t>
   </si>
   <si>
+    <t>【冷若冰山】每300年才可双修一次，但效果超群</t>
+  </si>
+  <si>
     <t>阴尸宗</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>楚花雅</t>
   </si>
   <si>
+    <t>【孤高冷傲】双修效果拔群，300年才可双休一次</t>
+  </si>
+  <si>
     <t>百剑堂</t>
   </si>
   <si>
@@ -129,9 +138,6 @@
     <t>温茗</t>
   </si>
   <si>
-    <t>【冷若冰山】每300年才可双修一次，但效果超群</t>
-  </si>
-  <si>
     <t>【极阳之体】与其双修后可提升炼丹经验</t>
   </si>
   <si>
@@ -156,6 +162,9 @@
     <t>慕容云悠</t>
   </si>
   <si>
+    <t>【极阴之体】与其双修后渡劫成功率提高，威望降低</t>
+  </si>
+  <si>
     <t>流云阁</t>
   </si>
   <si>
@@ -237,9 +246,6 @@
     <t>秋莲</t>
   </si>
   <si>
-    <t>【贤惠端庄】偶尔会赠送丹药给双修伴侣</t>
-  </si>
-  <si>
     <t>断剑山庄</t>
   </si>
   <si>
@@ -261,6 +267,9 @@
     <t>蒋一一</t>
   </si>
   <si>
+    <t>【温文尔雅】有几率进行双修不消耗次数</t>
+  </si>
+  <si>
     <t>金乌宗</t>
   </si>
   <si>
@@ -333,9 +342,6 @@
     <t>苏青檀</t>
   </si>
   <si>
-    <t>【极阴之体】与其双修后渡劫成功率提高，威望降低</t>
-  </si>
-  <si>
     <t>幻心门</t>
   </si>
   <si>
@@ -394,9 +400,6 @@
   </si>
   <si>
     <t>李诗央</t>
-  </si>
-  <si>
-    <t>【孤高冷傲】双修效果拔群，300年才可双休一次</t>
   </si>
   <si>
     <t>森罗殿</t>
@@ -485,12 +488,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,61 +519,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="7" tint="0.4"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +550,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,14 +564,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -615,9 +571,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,9 +608,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,8 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,97 +712,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,85 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,21 +947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -946,16 +957,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,17 +988,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -996,16 +996,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +1033,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1026,10 +1052,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,137 +1064,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,7 +1222,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,7 +1596,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1625,7 +1666,7 @@
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1646,7 +1687,7 @@
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1747,8 +1788,12 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7">
@@ -1762,10 +1807,14 @@
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7">
@@ -1776,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>19</v>
@@ -1797,50 +1846,54 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>37</v>
+      <c r="D15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1848,19 +1901,19 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1869,20 +1922,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
+      <c r="F17" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1890,70 +1943,78 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="11">
         <v>2</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1962,70 +2023,70 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="11">
         <v>2</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="11">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2034,19 +2095,19 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="11">
         <v>2</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="C26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2055,53 +2116,53 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="11">
         <v>2</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="C28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="C29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2110,19 +2171,19 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2131,34 +2192,34 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="C31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="11">
         <v>2</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7">
@@ -2169,16 +2230,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2190,13 +2251,17 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7">
@@ -2207,16 +2272,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2228,16 +2293,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2249,10 +2314,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2266,10 +2331,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2283,13 +2348,17 @@
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="7">
@@ -2300,10 +2369,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2317,16 +2386,16 @@
         <v>3</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2338,13 +2407,17 @@
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="7">
@@ -2355,13 +2428,17 @@
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="7">
@@ -2372,16 +2449,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2393,10 +2470,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -2410,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -2427,16 +2504,16 @@
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2448,13 +2525,17 @@
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="7">
@@ -2465,10 +2546,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -2478,20 +2559,20 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="11">
         <v>4</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="C50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>99</v>
+      <c r="F50" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2499,17 +2580,17 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="11">
         <v>4</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="C51" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="D51" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="7">
@@ -2518,10 +2599,10 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -2533,16 +2614,16 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2552,10 +2633,10 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -2567,10 +2648,10 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -2582,10 +2663,10 @@
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -2597,10 +2678,10 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -2612,10 +2693,10 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2627,10 +2708,10 @@
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2642,10 +2723,10 @@
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -2657,10 +2738,10 @@
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -2672,16 +2753,16 @@
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>36</v>
+        <v>121</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2691,10 +2772,10 @@
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -2706,10 +2787,10 @@
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -2721,16 +2802,16 @@
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2740,10 +2821,10 @@
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -2755,10 +2836,10 @@
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -2770,10 +2851,10 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -2785,16 +2866,16 @@
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2804,12 +2885,12 @@
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="7" t="s">
@@ -2823,10 +2904,10 @@
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -2838,10 +2919,10 @@
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -2853,10 +2934,10 @@
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -2868,10 +2949,10 @@
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -2883,16 +2964,16 @@
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2902,10 +2983,10 @@
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -2918,7 +2999,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -2931,7 +3012,7 @@
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -2944,7 +3025,7 @@
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -2957,7 +3038,7 @@
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -2970,7 +3051,7 @@
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -2983,7 +3064,7 @@
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -2996,7 +3077,7 @@
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>

--- a/修真聊天群/仙侣（持续更新）.xlsx
+++ b/修真聊天群/仙侣（持续更新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12480"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
   <si>
     <t xml:space="preserve">特别感谢：梦影ぷ逍遥□ 、房小锤 、3区南宫铭润 、霍鸿真 </t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>琉璃仙</t>
+  </si>
+  <si>
+    <t>【玲珑圣体】与其双修后可提升渡劫成功率</t>
   </si>
   <si>
     <t>凌月</t>
@@ -488,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -548,8 +551,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +629,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -571,24 +644,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,63 +666,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +682,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,13 +715,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,13 +817,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,31 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,115 +877,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,6 +950,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -957,16 +975,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,6 +1006,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -996,31 +1025,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,17 +1047,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1052,149 +1055,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,6 +1229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1596,7 +1602,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1851,7 +1857,7 @@
       <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1863,36 +1869,36 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1901,19 +1907,19 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1922,19 +1928,19 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1943,36 +1949,40 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1981,19 +1991,19 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>2</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2002,19 +2012,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>2</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2023,70 +2033,70 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>2</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>2</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>2</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>2</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2095,19 +2105,19 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>2</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2116,53 +2126,53 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>2</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>2</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>2</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2171,19 +2181,19 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>2</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2192,34 +2202,34 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>2</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>2</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7">
@@ -2559,19 +2569,19 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="12">
         <v>4</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2580,17 +2590,17 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="12">
         <v>4</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="7">
@@ -2668,8 +2678,12 @@
       <c r="D56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="7">
@@ -2681,7 +2695,7 @@
         <v>109</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -2696,7 +2710,7 @@
         <v>83</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2708,10 +2722,10 @@
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2723,10 +2737,10 @@
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -2738,10 +2752,10 @@
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -2753,12 +2767,12 @@
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F62" s="7" t="s">
@@ -2772,10 +2786,10 @@
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -2787,10 +2801,10 @@
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -2802,10 +2816,10 @@
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>35</v>
@@ -2821,10 +2835,10 @@
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -2836,10 +2850,10 @@
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -2851,10 +2865,10 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -2866,12 +2880,12 @@
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="7" t="s">
@@ -2885,12 +2899,12 @@
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="7" t="s">
@@ -2904,10 +2918,10 @@
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -2919,10 +2933,10 @@
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -2934,10 +2948,10 @@
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -2949,10 +2963,10 @@
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -2964,12 +2978,12 @@
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E75" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="7" t="s">
@@ -2983,10 +2997,10 @@
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -2999,7 +3013,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -3012,7 +3026,7 @@
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -3025,7 +3039,7 @@
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -3038,7 +3052,7 @@
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -3051,7 +3065,7 @@
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3064,7 +3078,7 @@
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -3077,7 +3091,7 @@
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
